--- a/tests/fengtong/丰通日报.xlsx
+++ b/tests/fengtong/丰通日报.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">入库</t>
   </si>
@@ -40,6 +40,9 @@
   <si>
     <t xml:space="preserve">号试
 出荷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汇总</t>
   </si>
 </sst>
 </file>
@@ -55,6 +58,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,19 +129,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,13 +162,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:G12"/>
+  <dimension ref="A8:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -236,6 +241,27 @@
       </c>
       <c r="G12" s="0" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">SUM(D11:D12)</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">SUM(E11:E12)</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">SUM(F11:F12)</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">SUM(G11:G12)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
